--- a/excel_with_subclasses/with_count/bay_with_count.xlsx
+++ b/excel_with_subclasses/with_count/bay_with_count.xlsx
@@ -385,7 +385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,52 +418,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q31615</t>
+          <t>Q828909</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>бухта</t>
+          <t>пристань</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Q39594_залив</t>
+          <t>Q283202_гавань</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>467</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q828909</t>
+          <t>Q283202</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>пристань</t>
+          <t>гавань</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Q283202_гавань</t>
+          <t>Q39594_залив</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>356</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q283202</t>
+          <t>Q1322134</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>гавань</t>
+          <t>залив</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -472,58 +472,58 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>335</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q1322134</t>
+          <t>Q3543043</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>залив</t>
+          <t>quay</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Q39594_залив</t>
+          <t>Q828909_пристань</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>267</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q3543043</t>
+          <t>Q558116</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>quay</t>
+          <t>firth</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Q828909_пристань</t>
+          <t>Q39594_залив</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q558116</t>
+          <t>Q55863112</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>firth</t>
+          <t>voe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -532,23 +532,23 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q55863112</t>
+          <t>Q64210934</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>voe</t>
+          <t>natural harbor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Q39594_залив</t>
+          <t>Q283202_гавань</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -558,61 +558,61 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q64210934</t>
+          <t>Q4990444</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>natural harbor</t>
+          <t>lagoon</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Q283202_гавань</t>
+          <t>Q39594_залив</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q4990444</t>
+          <t>Q7398566</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>lagoon</t>
+          <t>safeguarded wharf</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Q39594_залив</t>
+          <t>Q828909_пристань</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q7398566</t>
+          <t>Q10512405</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>safeguarded wharf</t>
+          <t>guest harbor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q828909_пристань</t>
+          <t>Q283202_гавань</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -638,37 +638,37 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q10512405</t>
+          <t>Q11859723</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>guest harbor</t>
+          <t>Flada</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q283202_гавань</t>
+          <t>Q39594_залив</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q21573839</t>
+          <t>Q2327160</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>saco</t>
+          <t>kwelkade</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q31615_бухта</t>
+          <t>Q828909_пристань</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -678,12 +678,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q2327160</t>
+          <t>Q2943018</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>kwelkade</t>
+          <t>Catway</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -698,60 +698,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q2943018</t>
+          <t>Q6034850</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Catway</t>
+          <t>inland harbor</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Q828909_пристань</t>
+          <t>Q283202_гавань</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Q11859723</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Flada</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Q39594_залив</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Q6034850</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>inland harbor</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Q283202_гавань</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
